--- a/biology/Botanique/Crassula/Crassula.xlsx
+++ b/biology/Botanique/Crassula/Crassula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassula est un genre botanique appartenant à la famille des Crassulaceae et comprenant 300 espèces de plantes succulentes originaires de plusieurs régions du monde, en grande majorité d'Afrique du Sud, incluant le célèbre arbre de Jade, Crassula ovata. Ces plantes sont adaptées aux conditions arides et sont connues pour stocker l'eau dans leurs tiges, feuilles ou racines.
 Les Crassula se multiplient très facilement par bouture en laissant sécher quelques jours la bouture (jusqu'à ce qu'un cal se forme) avant de la placer dans un substrat sableux.
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crassula alba
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Crassula alba
 Crassula alpestris
 Crassula aquatica (L.) Schoenl.
 Crassula arborescens
@@ -590,9 +604,43 @@
 Crassula tetragona
 Crassula tillaea Lester-Garland
 Crassula viridis (S. Wats.) Bywater et Wickens
-Crassula volkensii
-Cultivars
-Crassula 'Buddha's Temple'
+Crassula volkensii</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Crassula</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crassula</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassula 'Buddha's Temple'
 Crassula 'Coralita'
 Crassula 'Dorothy'
 Crassula 'Fallwood'
